--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E953C-34BB-48E8-B560-F7ADFFD1F694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575097D-511A-4D20-9049-E0D05B8DE368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$J$121</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="144">
   <si>
     <t>Nome</t>
   </si>
@@ -422,6 +426,42 @@
   </si>
   <si>
     <t>Background</t>
+  </si>
+  <si>
+    <t>Oggetti</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Terreno</t>
+  </si>
+  <si>
+    <t>Classe</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Oggetto di background</t>
+  </si>
+  <si>
+    <t>Oggetto pesante</t>
+  </si>
+  <si>
+    <t>Sti cazzi</t>
+  </si>
+  <si>
+    <t>Backgroung</t>
+  </si>
+  <si>
+    <t>Ponte</t>
+  </si>
+  <si>
+    <t>Oggetto</t>
   </si>
 </sst>
 </file>
@@ -437,12 +477,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -457,9 +503,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -740,1007 +787,1557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:F124"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
         <v>130</v>
       </c>
-      <c r="F4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>15</v>
-      </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
       <c r="B21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>35</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>39</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>41</v>
-      </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
       <c r="B47">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>43</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>44</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>47</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>48</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>54</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>56</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>57</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>58</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71">
         <v>69</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>61</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>62</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
         <v>72</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>63</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>64</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>65</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
         <v>77</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>66</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
         <v>79</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>70</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>71</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
         <v>85</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
         <v>87</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>76</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>77</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91">
         <v>89</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>78</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>79</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>80</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>83</v>
-      </c>
-      <c r="C88" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>84</v>
-      </c>
-      <c r="C89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>85</v>
-      </c>
-      <c r="C90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>87</v>
-      </c>
-      <c r="C92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>88</v>
-      </c>
-      <c r="C93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>89</v>
-      </c>
-      <c r="C94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>90</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B103">
         <v>101</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>91</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>92</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>93</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106">
         <v>104</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>94</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107">
         <v>105</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>95</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108">
         <v>106</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>96</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>97</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110">
         <v>108</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>98</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111">
         <v>109</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>99</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
         <v>110</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>100</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>101</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114">
         <v>112</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>102</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115">
         <v>113</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>103</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116">
         <v>114</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>104</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117">
         <v>115</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>105</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118">
         <v>116</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>106</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119">
         <v>117</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>107</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120">
         <v>118</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>108</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="C120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>109</v>
-      </c>
-      <c r="C114" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>110</v>
-      </c>
-      <c r="C115" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>111</v>
-      </c>
-      <c r="C116" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>112</v>
-      </c>
-      <c r="C117" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>113</v>
-      </c>
-      <c r="C118" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>114</v>
-      </c>
-      <c r="C119" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120">
-        <v>115</v>
-      </c>
-      <c r="C120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121">
-        <v>116</v>
-      </c>
       <c r="C121" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122">
-        <v>117</v>
-      </c>
-      <c r="C122" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123">
-        <v>118</v>
-      </c>
-      <c r="C123" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124">
-        <v>119</v>
-      </c>
-      <c r="C124" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J121" xr:uid="{90ECF4D8-0B31-4592-984D-B1FEBF4F5623}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1750,7 +2347,7 @@
   <dimension ref="D9:H127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,4 +3667,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425061-D43B-44F5-ADB3-D0ABE7860380}">
+  <dimension ref="D8:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575097D-511A-4D20-9049-E0D05B8DE368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F285E-2D06-4FAB-9D09-A60C24C6FBDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$J$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$L$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="149">
   <si>
     <t>Nome</t>
   </si>
@@ -455,13 +455,28 @@
     <t>Sti cazzi</t>
   </si>
   <si>
-    <t>Backgroung</t>
-  </si>
-  <si>
     <t>Ponte</t>
   </si>
   <si>
     <t>Oggetto</t>
+  </si>
+  <si>
+    <t>Traccia</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Freccia</t>
+  </si>
+  <si>
+    <t>Background no se stesso</t>
+  </si>
+  <si>
+    <t>10 coin</t>
+  </si>
+  <si>
+    <t>Snake</t>
   </si>
 </sst>
 </file>
@@ -787,24 +802,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -829,8 +847,29 @@
       <c r="J1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -844,7 +883,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -858,7 +897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -872,7 +911,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -886,7 +925,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -915,7 +954,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -929,7 +968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -943,7 +982,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -957,7 +996,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1056,11 @@
       <c r="J11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1074,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1088,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1116,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1113,10 +1155,10 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
         <v>134</v>
@@ -1148,7 +1190,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1162,7 +1204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1176,7 +1218,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1232,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1201,10 +1243,10 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1214,8 +1256,11 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1270,11 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1236,8 +1284,11 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1261,8 +1312,32 @@
       <c r="C28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1272,8 +1347,32 @@
       <c r="C29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1297,8 +1396,11 @@
       <c r="C31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1414,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1322,8 +1424,11 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1333,8 +1438,11 @@
       <c r="C34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1470,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1372,8 +1480,11 @@
       <c r="C37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1383,8 +1494,14 @@
       <c r="C38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1394,8 +1511,35 @@
       <c r="C39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1405,8 +1549,35 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1619,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1472,8 +1643,11 @@
       <c r="C45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1487,7 +1661,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1497,8 +1671,11 @@
       <c r="C47" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1508,8 +1685,11 @@
       <c r="C48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1519,8 +1699,11 @@
       <c r="C49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1713,11 @@
       <c r="C50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1541,8 +1727,11 @@
       <c r="C51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1552,8 +1741,11 @@
       <c r="C52" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1755,11 @@
       <c r="C53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1574,8 +1769,11 @@
       <c r="C54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1585,8 +1783,11 @@
       <c r="C55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1596,8 +1797,11 @@
       <c r="C56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1607,8 +1811,35 @@
       <c r="C57" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" t="s">
+        <v>133</v>
+      </c>
+      <c r="J57" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" t="s">
+        <v>133</v>
+      </c>
+      <c r="M57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1849,11 @@
       <c r="C58" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1629,8 +1863,11 @@
       <c r="C59" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1877,11 @@
       <c r="C60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1662,8 +1902,11 @@
       <c r="C62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1673,8 +1916,11 @@
       <c r="C63" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1698,8 +1944,11 @@
       <c r="C65" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1709,8 +1958,11 @@
       <c r="C66" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1720,8 +1972,11 @@
       <c r="C67" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1731,8 +1986,11 @@
       <c r="C68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +2004,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -1756,8 +2014,41 @@
       <c r="C70" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" t="s">
+        <v>134</v>
+      </c>
+      <c r="J70" t="s">
+        <v>134</v>
+      </c>
+      <c r="K70" t="s">
+        <v>134</v>
+      </c>
+      <c r="L70" t="s">
+        <v>134</v>
+      </c>
+      <c r="M70" t="s">
+        <v>134</v>
+      </c>
+      <c r="N70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -1767,8 +2058,11 @@
       <c r="C71" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -1778,8 +2072,11 @@
       <c r="C72" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -1789,8 +2086,11 @@
       <c r="C73" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +2100,11 @@
       <c r="C74" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -1811,8 +2114,11 @@
       <c r="C75" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1822,8 +2128,11 @@
       <c r="C76" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -1833,8 +2142,11 @@
       <c r="C77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -1844,8 +2156,11 @@
       <c r="C78" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1855,8 +2170,11 @@
       <c r="C79" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +2188,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -1880,8 +2198,11 @@
       <c r="C81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -1891,8 +2212,11 @@
       <c r="C82" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -1902,8 +2226,11 @@
       <c r="C83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -1913,8 +2240,11 @@
       <c r="C84" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -1924,8 +2254,11 @@
       <c r="C85" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -1935,8 +2268,11 @@
       <c r="C86" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -1946,8 +2282,11 @@
       <c r="C87" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1957,8 +2296,11 @@
       <c r="C88" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1968,8 +2310,44 @@
       <c r="C89" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" t="s">
+        <v>134</v>
+      </c>
+      <c r="G89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" t="s">
+        <v>133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>133</v>
+      </c>
+      <c r="J89" t="s">
+        <v>133</v>
+      </c>
+      <c r="K89" t="s">
+        <v>133</v>
+      </c>
+      <c r="L89" t="s">
+        <v>133</v>
+      </c>
+      <c r="M89" t="s">
+        <v>134</v>
+      </c>
+      <c r="N89" t="s">
+        <v>134</v>
+      </c>
+      <c r="O89" t="s">
+        <v>133</v>
+      </c>
+      <c r="P89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +2358,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -1991,7 +2369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2001,8 +2379,44 @@
       <c r="C92" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" t="s">
+        <v>133</v>
+      </c>
+      <c r="F92" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" t="s">
+        <v>133</v>
+      </c>
+      <c r="I92" t="s">
+        <v>133</v>
+      </c>
+      <c r="J92" t="s">
+        <v>133</v>
+      </c>
+      <c r="K92" t="s">
+        <v>133</v>
+      </c>
+      <c r="L92" t="s">
+        <v>133</v>
+      </c>
+      <c r="M92" t="s">
+        <v>134</v>
+      </c>
+      <c r="N92" t="s">
+        <v>134</v>
+      </c>
+      <c r="O92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2013,7 +2427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2034,8 +2448,11 @@
       <c r="C95" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2105,6 +2522,9 @@
       </c>
       <c r="C101" t="s">
         <v>110</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,6 +2587,9 @@
       <c r="C106" t="s">
         <v>115</v>
       </c>
+      <c r="D106" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2189,6 +2612,9 @@
       <c r="C108" t="s">
         <v>117</v>
       </c>
+      <c r="D108" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2200,6 +2626,9 @@
       <c r="C109" t="s">
         <v>118</v>
       </c>
+      <c r="D109" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -2210,6 +2639,9 @@
       </c>
       <c r="C110" t="s">
         <v>119</v>
+      </c>
+      <c r="D110" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,6 +2654,9 @@
       <c r="C111" t="s">
         <v>120</v>
       </c>
+      <c r="D111" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2233,6 +2668,9 @@
       <c r="C112" t="s">
         <v>121</v>
       </c>
+      <c r="D112" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -2244,6 +2682,9 @@
       <c r="C113" t="s">
         <v>33</v>
       </c>
+      <c r="D113" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -2255,6 +2696,9 @@
       <c r="C114" t="s">
         <v>122</v>
       </c>
+      <c r="D114" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -2265,6 +2709,9 @@
       </c>
       <c r="C115" t="s">
         <v>123</v>
+      </c>
+      <c r="D115" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,6 +2738,9 @@
       <c r="C117" t="s">
         <v>125</v>
       </c>
+      <c r="D117" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -2302,6 +2752,9 @@
       <c r="C118" t="s">
         <v>126</v>
       </c>
+      <c r="D118" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -2326,6 +2779,9 @@
       </c>
       <c r="C120" t="s">
         <v>128</v>
+      </c>
+      <c r="D120" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,9 +2791,12 @@
       <c r="C121" t="s">
         <v>129</v>
       </c>
+      <c r="D121" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J121" xr:uid="{90ECF4D8-0B31-4592-984D-B1FEBF4F5623}"/>
+  <autoFilter ref="A1:L121" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3671,10 +4130,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425061-D43B-44F5-ADB3-D0ABE7860380}">
-  <dimension ref="D8:J15"/>
+  <dimension ref="D8:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,9 +4144,11 @@
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>136</v>
       </c>
@@ -3709,8 +4170,29 @@
       <c r="J8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>130</v>
       </c>
@@ -3732,8 +4214,29 @@
       <c r="J9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>131</v>
       </c>
@@ -3755,8 +4258,23 @@
       <c r="J10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>132</v>
       </c>
@@ -3778,8 +4296,26 @@
       <c r="J11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>135</v>
       </c>
@@ -3801,8 +4337,23 @@
       <c r="J12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>138</v>
       </c>
@@ -3824,8 +4375,26 @@
       <c r="J13" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>139</v>
       </c>
@@ -3847,10 +4416,25 @@
       <c r="J14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
         <v>134</v>
@@ -3869,6 +4453,335 @@
       </c>
       <c r="J15" t="s">
         <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="s">
+        <v>134</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>134</v>
+      </c>
+      <c r="P16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" t="s">
+        <v>133</v>
+      </c>
+      <c r="M22" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F285E-2D06-4FAB-9D09-A60C24C6FBDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F3DFF-8C44-4EE7-ADA3-E377629A17CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="157">
   <si>
     <t>Nome</t>
   </si>
@@ -470,20 +470,44 @@
     <t>Freccia</t>
   </si>
   <si>
-    <t>Background no se stesso</t>
-  </si>
-  <si>
     <t>10 coin</t>
   </si>
   <si>
     <t>Snake</t>
+  </si>
+  <si>
+    <t>CheckPoint Flag</t>
+  </si>
+  <si>
+    <t>Pink coin</t>
+  </si>
+  <si>
+    <t>Segomma</t>
+  </si>
+  <si>
+    <t>Lift</t>
+  </si>
+  <si>
+    <t>Background 2</t>
+  </si>
+  <si>
+    <t>Background 3</t>
+  </si>
+  <si>
+    <t>Background 4</t>
+  </si>
+  <si>
+    <t>Background 5</t>
+  </si>
+  <si>
+    <t>Background 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,8 +515,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +540,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDA9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCF20E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9ADAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,16 +622,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB9FFFF"/>
+      <color rgb="FFF9ADAD"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFCCF20E"/>
+      <color rgb="FFFDA9F9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -802,11 +927,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q121"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,11 +944,10 @@
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -857,19 +982,25 @@
         <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="O1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="P1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="Q1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -883,7 +1014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -897,7 +1028,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -911,7 +1042,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -925,7 +1056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -954,7 +1085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -968,7 +1099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -982,7 +1113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1191,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1085,10 +1216,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1233,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1247,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1261,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1275,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1289,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1321,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1335,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1349,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1377,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1391,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1405,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1419,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +1468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1503,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1386,7 +1517,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1531,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1559,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1470,7 +1601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1615,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1495,13 +1626,13 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1539,7 +1670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1708,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1591,7 +1722,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1605,7 +1736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1750,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1647,7 +1778,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1661,7 +1792,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1675,7 +1806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +1848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1862,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1745,7 +1876,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +1890,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1787,7 +1918,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1801,7 +1932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1811,6 +1942,9 @@
       <c r="C57" t="s">
         <v>65</v>
       </c>
+      <c r="D57" t="s">
+        <v>142</v>
+      </c>
       <c r="E57" t="s">
         <v>134</v>
       </c>
@@ -1839,7 +1973,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1853,7 +1987,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +2001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +2015,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -1891,8 +2025,11 @@
       <c r="C61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1906,7 +2043,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1920,7 +2057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +2071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +2085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1959,10 +2096,10 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +2113,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1990,7 +2127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2141,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2015,7 +2152,7 @@
         <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
         <v>134</v>
@@ -2044,11 +2181,8 @@
       <c r="M70" t="s">
         <v>134</v>
       </c>
-      <c r="N70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2062,7 +2196,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2210,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2238,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2266,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +2280,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2160,7 +2294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2188,7 +2322,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2202,7 +2336,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2230,7 +2364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2241,10 +2375,10 @@
         <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2255,10 +2389,10 @@
         <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2269,10 +2403,10 @@
         <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2286,7 +2420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2434,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2310,6 +2444,9 @@
       <c r="C89" t="s">
         <v>98</v>
       </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
       <c r="E89" t="s">
         <v>134</v>
       </c>
@@ -2338,16 +2475,13 @@
         <v>134</v>
       </c>
       <c r="N89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O89" t="s">
         <v>133</v>
       </c>
-      <c r="P89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2357,8 +2491,11 @@
       <c r="C90" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2368,8 +2505,11 @@
       <c r="C91" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2410,13 +2550,10 @@
         <v>134</v>
       </c>
       <c r="N92" t="s">
-        <v>134</v>
-      </c>
-      <c r="O92" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2426,8 +2563,11 @@
       <c r="C93" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2437,8 +2577,41 @@
       <c r="C94" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" t="s">
+        <v>134</v>
+      </c>
+      <c r="G94" t="s">
+        <v>134</v>
+      </c>
+      <c r="H94" t="s">
+        <v>133</v>
+      </c>
+      <c r="I94" t="s">
+        <v>133</v>
+      </c>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+      <c r="K94" t="s">
+        <v>133</v>
+      </c>
+      <c r="L94" t="s">
+        <v>134</v>
+      </c>
+      <c r="N94" t="s">
+        <v>133</v>
+      </c>
+      <c r="O94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2625,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2462,8 +2635,11 @@
       <c r="C96" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2473,8 +2649,17 @@
       <c r="C97" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2488,7 +2673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2498,8 +2683,11 @@
       <c r="C99" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2701,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2715,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2537,8 +2725,11 @@
       <c r="C102" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2548,8 +2739,11 @@
       <c r="C103" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +2771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2591,7 +2785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2601,8 +2795,11 @@
       <c r="C107" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2616,7 +2813,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +2841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2658,7 +2855,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2672,7 +2869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2686,7 +2883,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2700,7 +2897,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2714,7 +2911,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2925,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -2742,7 +2939,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2756,7 +2953,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -2770,7 +2967,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -2784,7 +2981,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -2796,7 +2993,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L121" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
+  <autoFilter ref="A1:L121" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Background no se stesso"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4130,661 +4333,1247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425061-D43B-44F5-ADB3-D0ABE7860380}">
-  <dimension ref="D8:Q22"/>
+  <dimension ref="B8:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>136</v>
       </c>
-      <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M8" t="s">
+      <c r="K8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" t="s">
+        <v>134</v>
+      </c>
+      <c r="T13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" t="s">
+        <v>134</v>
+      </c>
+      <c r="S15" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" t="s">
+        <v>134</v>
+      </c>
+      <c r="T16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" t="s">
+        <v>134</v>
+      </c>
+      <c r="T17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" t="s">
+        <v>134</v>
+      </c>
+      <c r="S21" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" t="s">
+        <v>133</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" t="s">
+        <v>134</v>
+      </c>
+      <c r="S22" t="s">
+        <v>134</v>
+      </c>
+      <c r="T22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R23" t="s">
+        <v>134</v>
+      </c>
+      <c r="S23" t="s">
+        <v>134</v>
+      </c>
+      <c r="T23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N24" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S24" t="s">
+        <v>134</v>
+      </c>
+      <c r="T24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" t="s">
+        <v>134</v>
+      </c>
+      <c r="N25" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" t="s">
+        <v>134</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" t="s">
+        <v>134</v>
+      </c>
+      <c r="S26" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J12" t="s">
-        <v>133</v>
-      </c>
-      <c r="M12" t="s">
-        <v>134</v>
-      </c>
-      <c r="N12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" t="s">
-        <v>133</v>
-      </c>
-      <c r="M14" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" t="s">
-        <v>134</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" t="s">
-        <v>134</v>
-      </c>
-      <c r="O20" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" t="s">
-        <v>134</v>
-      </c>
-      <c r="N21" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" t="s">
-        <v>134</v>
-      </c>
-      <c r="N22" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" t="s">
-        <v>133</v>
-      </c>
-      <c r="P22" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>133</v>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F3DFF-8C44-4EE7-ADA3-E377629A17CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395C22A-E655-4414-98BE-FDB7BF6B5D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +609,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFCFCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E8E8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -622,22 +652,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -646,11 +688,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808080"/>
+      <color rgb="FF8E8E8E"/>
+      <color rgb="FF9B9B9B"/>
+      <color rgb="FF999999"/>
+      <color rgb="FFB0B0B0"/>
+      <color rgb="FFCFCFCF"/>
+      <color rgb="FF6D6D6D"/>
       <color rgb="FFB9FFFF"/>
       <color rgb="FFF9ADAD"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFCCF20E"/>
-      <color rgb="FFFDA9F9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4333,10 +4380,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425061-D43B-44F5-ADB3-D0ABE7860380}">
-  <dimension ref="B8:T43"/>
+  <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,1227 +4396,1228 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="C8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="C9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="C10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="C11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="C12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" t="s">
-        <v>134</v>
-      </c>
-      <c r="S9" t="s">
-        <v>134</v>
-      </c>
-      <c r="T9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>134</v>
-      </c>
-      <c r="R10" t="s">
-        <v>134</v>
-      </c>
-      <c r="S10" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" t="s">
-        <v>133</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" t="s">
-        <v>134</v>
-      </c>
-      <c r="S11" t="s">
-        <v>134</v>
-      </c>
-      <c r="T11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M12" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" t="s">
-        <v>134</v>
-      </c>
-      <c r="S12" t="s">
-        <v>134</v>
-      </c>
-      <c r="T12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" t="s">
-        <v>134</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="C13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T13" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>134</v>
-      </c>
-      <c r="R14" t="s">
-        <v>134</v>
-      </c>
-      <c r="S14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s">
-        <v>133</v>
-      </c>
-      <c r="O15" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" t="s">
-        <v>134</v>
-      </c>
-      <c r="S15" t="s">
-        <v>134</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O16" t="s">
-        <v>133</v>
-      </c>
-      <c r="P16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" t="s">
-        <v>134</v>
-      </c>
-      <c r="S16" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T16" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>134</v>
-      </c>
-      <c r="R17" t="s">
-        <v>134</v>
-      </c>
-      <c r="S17" t="s">
-        <v>134</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="B17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T17" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" t="s">
-        <v>134</v>
-      </c>
-      <c r="N18" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>134</v>
-      </c>
-      <c r="R18" t="s">
-        <v>134</v>
-      </c>
-      <c r="S18" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S19" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="B19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="T19" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="O20" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R20" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" t="s">
-        <v>133</v>
-      </c>
-      <c r="K21" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21" t="s">
-        <v>134</v>
-      </c>
-      <c r="M21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>134</v>
-      </c>
-      <c r="R21" t="s">
-        <v>134</v>
-      </c>
-      <c r="S21" t="s">
-        <v>134</v>
-      </c>
-      <c r="T21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" t="s">
-        <v>134</v>
-      </c>
-      <c r="M22" t="s">
-        <v>133</v>
-      </c>
-      <c r="N22" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>134</v>
-      </c>
-      <c r="R22" t="s">
-        <v>134</v>
-      </c>
-      <c r="S22" t="s">
-        <v>134</v>
-      </c>
-      <c r="T22" t="s">
-        <v>134</v>
+      <c r="B20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J23" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" t="s">
-        <v>134</v>
-      </c>
-      <c r="N23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R23" t="s">
-        <v>134</v>
-      </c>
-      <c r="S23" t="s">
-        <v>134</v>
-      </c>
-      <c r="T23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" t="s">
-        <v>134</v>
-      </c>
-      <c r="P24" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>134</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="S24" t="s">
-        <v>134</v>
-      </c>
-      <c r="T24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" t="s">
-        <v>134</v>
-      </c>
-      <c r="M25" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" t="s">
-        <v>134</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="T25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>134</v>
-      </c>
-      <c r="R26" t="s">
-        <v>134</v>
-      </c>
-      <c r="S26" t="s">
-        <v>134</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395C22A-E655-4414-98BE-FDB7BF6B5D7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AF5E05-E578-4A43-9D3B-FFCB0ED64AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="158">
   <si>
     <t>Nome</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>Background 6</t>
+  </si>
+  <si>
+    <t>Inizio/fine</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -678,6 +681,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,12 +1010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1110,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1103,7 +1138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1195,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1209,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1238,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1301,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1357,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1382,7 +1417,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1410,7 +1445,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1585,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1564,7 +1599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1613,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +1655,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1662,7 +1697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1679,7 +1714,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1717,7 +1752,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
         <v>133</v>
@@ -1755,7 +1790,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1783,7 +1818,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1846,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1839,7 +1874,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1888,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1867,7 +1902,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1881,7 +1916,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1895,7 +1930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1958,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1937,7 +1972,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1965,7 +2000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +2014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2055,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2034,7 +2069,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2048,7 +2083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2097,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2076,7 +2111,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2090,7 +2125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2153,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2167,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2146,7 +2181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2174,7 +2209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2188,7 +2223,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2229,7 +2264,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2243,7 +2278,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +2292,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2285,7 +2320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2299,7 +2334,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2327,7 +2362,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2341,7 +2376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2397,7 +2432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2411,7 +2446,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2439,7 +2474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +2488,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2481,7 +2516,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2563,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2577,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2591,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2600,7 +2635,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2649,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2658,7 +2693,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2672,7 +2707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +2721,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2741,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2720,7 +2755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2748,7 +2783,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2762,7 +2797,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2811,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2790,7 +2825,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2804,7 +2839,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2818,7 +2853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2846,7 +2881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2860,7 +2895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2874,7 +2909,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2923,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2902,7 +2937,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2916,7 +2951,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2930,7 +2965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2958,7 +2993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2972,7 +3007,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -2986,7 +3021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +3035,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3014,7 +3049,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3028,7 +3063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -3040,13 +3075,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L121" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Background no se stesso"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L121" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4380,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425061-D43B-44F5-ADB3-D0ABE7860380}">
-  <dimension ref="B2:T37"/>
+  <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4396,71 +4425,76 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="U2" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -4517,9 +4551,12 @@
       <c r="T3" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="U3" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -4576,9 +4613,12 @@
       <c r="T4" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="U4" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -4635,9 +4675,12 @@
       <c r="T5" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="U5" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -4694,9 +4737,12 @@
       <c r="T6" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="U6" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -4753,9 +4799,12 @@
       <c r="T7" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="U7" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4812,9 +4861,12 @@
       <c r="T8" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="U8" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>141</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -4871,9 +4923,12 @@
       <c r="T9" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="U9" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -4930,9 +4985,12 @@
       <c r="T10" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="U10" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>145</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -4989,9 +5047,12 @@
       <c r="T11" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="U11" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -5048,9 +5109,12 @@
       <c r="T12" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="U12" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
         <v>146</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -5107,9 +5171,12 @@
       <c r="T13" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="U13" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -5166,9 +5233,12 @@
       <c r="T14" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="U14" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -5225,9 +5295,12 @@
       <c r="T15" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="U15" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -5284,9 +5357,12 @@
       <c r="T16" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="U16" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -5343,9 +5419,12 @@
       <c r="T17" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="U17" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -5402,9 +5481,12 @@
       <c r="T18" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="U18" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -5461,9 +5543,12 @@
       <c r="T19" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="U19" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -5520,23 +5605,88 @@
       <c r="T20" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>141</v>
       </c>
@@ -5547,22 +5697,25 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>132</v>
       </c>
@@ -5582,12 +5735,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>94</v>
       </c>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,29 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB6C87-AD54-43EC-8032-3672A4AC6725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41CF8E-A452-495D-BE01-3FA4C0F4DC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId2"/>
-    <sheet name="Foglio4" sheetId="4" r:id="rId3"/>
+    <sheet name="Foglio2" sheetId="5" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$L$121</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="152">
   <si>
     <t>Nome</t>
   </si>
@@ -441,9 +450,6 @@
   </si>
   <si>
     <t>Ponte</t>
-  </si>
-  <si>
-    <t>Oggetto</t>
   </si>
   <si>
     <t>Traccia</t>
@@ -996,9 +1002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,25 +1048,25 @@
         <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N1" t="s">
         <v>96</v>
       </c>
       <c r="O1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P1" t="s">
         <v>98</v>
       </c>
       <c r="Q1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" t="s">
         <v>145</v>
-      </c>
-      <c r="R1" t="s">
-        <v>146</v>
       </c>
       <c r="S1" t="s">
         <v>89</v>
@@ -1282,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1440,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1454,7 +1460,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1468,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1510,7 +1516,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
         <v>128</v>
@@ -1545,7 +1551,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
         <v>129</v>
@@ -1593,8 +1599,8 @@
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>137</v>
+      <c r="D31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1692,7 +1698,7 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
         <v>129</v>
@@ -1709,7 +1715,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" t="s">
         <v>128</v>
@@ -1747,7 +1753,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
         <v>128</v>
@@ -1841,7 +1847,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1925,7 +1931,7 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -1981,7 +1987,7 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2009,7 +2015,7 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
         <v>129</v>
@@ -2148,7 +2154,7 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -2190,7 +2196,7 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -2218,7 +2224,7 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
         <v>129</v>
@@ -2259,7 +2265,7 @@
         <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -2273,7 +2279,7 @@
         <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -2441,7 +2447,7 @@
         <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -2469,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -2483,7 +2489,7 @@
         <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -2571,7 +2577,7 @@
       <c r="C91" t="s">
         <v>95</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2630,7 +2636,7 @@
         <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -2702,7 +2708,7 @@
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,7 +2784,7 @@
         <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,7 +2798,7 @@
         <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425061-D43B-44F5-ADB3-D0ABE7860380}">
   <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,40 +3120,40 @@
         <v>136</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>71</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>96</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>66</v>
       </c>
       <c r="R2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>146</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>89</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -3586,7 +3592,7 @@
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>129</v>
@@ -3648,7 +3654,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>129</v>
@@ -3772,7 +3778,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>129</v>
@@ -3896,7 +3902,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>128</v>
@@ -3958,7 +3964,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>128</v>
@@ -4082,7 +4088,7 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>129</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>129</v>
@@ -4268,7 +4274,7 @@
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>128</v>
@@ -4330,13 +4336,16 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -4348,10 +4357,10 @@
         <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
@@ -4364,7 +4373,7 @@
         <v>125</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
@@ -4383,18 +4392,18 @@
         <v>134</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
@@ -4404,30 +4413,30 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4437,11 +4446,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
-  <dimension ref="A1:B120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
+  <dimension ref="A1:C120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,964 +4659,1444 @@
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>VLOOKUP(B1,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>VLOOKUP(B2,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>VLOOKUP(B3,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>VLOOKUP(B4,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>VLOOKUP(B5,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>VLOOKUP(B6,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>VLOOKUP(B7,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>VLOOKUP(B8,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>VLOOKUP(B9,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>VLOOKUP(B10,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>VLOOKUP(B11,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C12">
+        <f>VLOOKUP(B12,Foglio2!$A$1:$B$21,2,)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>VLOOKUP(B13,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>VLOOKUP(B14,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>VLOOKUP(B15,Foglio2!$A$1:$B$21,2,)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>VLOOKUP(B16,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>VLOOKUP(B17,Foglio2!$A$1:$B$21,2,)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>VLOOKUP(B18,Foglio2!$A$1:$B$21,2,)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>VLOOKUP(B19,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>VLOOKUP(B20,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>VLOOKUP(B21,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <f>VLOOKUP(B22,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C23">
+        <f>VLOOKUP(B23,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(B24,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>VLOOKUP(B25,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>VLOOKUP(B26,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C27">
+        <f>VLOOKUP(B27,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C28">
+        <f>VLOOKUP(B28,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>VLOOKUP(B29,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30">
+        <f>VLOOKUP(B30,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>VLOOKUP(B31,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>VLOOKUP(B32,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>VLOOKUP(B33,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>VLOOKUP(B34,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>VLOOKUP(B35,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>VLOOKUP(B36,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C37">
+        <f>VLOOKUP(B37,Foglio2!$A$1:$B$21,2,)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C38">
+        <f>VLOOKUP(B38,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="C39">
+        <f>VLOOKUP(B39,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f>VLOOKUP(B40,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>VLOOKUP(B41,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>VLOOKUP(B42,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>VLOOKUP(B43,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C44">
+        <f>VLOOKUP(B44,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>VLOOKUP(B45,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>VLOOKUP(B46,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>VLOOKUP(B47,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f>VLOOKUP(B48,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f>VLOOKUP(B49,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C50">
+        <f>VLOOKUP(B50,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f>VLOOKUP(B51,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f>VLOOKUP(B52,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f>VLOOKUP(B53,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C54">
+        <f>VLOOKUP(B54,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f>VLOOKUP(B55,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(B56,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f>VLOOKUP(B57,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f>VLOOKUP(B58,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f>VLOOKUP(B59,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f>VLOOKUP(B60,Foglio2!$A$1:$B$21,2,)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f>VLOOKUP(B61,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f>VLOOKUP(B62,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f>VLOOKUP(B63,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C64">
+        <f>VLOOKUP(B64,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f>VLOOKUP(B65,Foglio2!$A$1:$B$21,2,)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f>VLOOKUP(B66,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <f>VLOOKUP(B67,Foglio2!$A$1:$B$21,2,)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f>VLOOKUP(B68,Foglio2!$A$1:$B$21,2,)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="C69">
+        <f>VLOOKUP(B69,Foglio2!$A$1:$B$21,2,)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C70">
+        <f>VLOOKUP(B70,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C71">
+        <f>VLOOKUP(B71,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f>VLOOKUP(B72,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f>VLOOKUP(B73,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f>VLOOKUP(B74,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f>VLOOKUP(B75,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f>VLOOKUP(B76,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f>VLOOKUP(B77,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f>VLOOKUP(B78,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f>VLOOKUP(B79,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f>VLOOKUP(B80,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f>VLOOKUP(B81,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f>VLOOKUP(B82,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="C83">
+        <f>VLOOKUP(B83,Foglio2!$A$1:$B$21,2,)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f>VLOOKUP(B84,Foglio2!$A$1:$B$21,2,)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="C85">
+        <f>VLOOKUP(B85,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C86">
+        <f>VLOOKUP(B86,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f>VLOOKUP(B87,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f>VLOOKUP(B88,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f>VLOOKUP(B89,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f>VLOOKUP(B90,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f>VLOOKUP(B91,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C92">
+        <f>VLOOKUP(B92,Foglio2!$A$1:$B$21,2,)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f>VLOOKUP(B93,Foglio2!$A$1:$B$21,2,)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f>VLOOKUP(B94,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C95">
+        <f>VLOOKUP(B95,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f>VLOOKUP(B96,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f>VLOOKUP(B97,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f>VLOOKUP(B98,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f>VLOOKUP(B99,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C100">
+        <f>VLOOKUP(B100,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C101">
+        <f>VLOOKUP(B101,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f>VLOOKUP(B102,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f>VLOOKUP(B103,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f>VLOOKUP(B104,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f>VLOOKUP(B105,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f>VLOOKUP(B106,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f>VLOOKUP(B107,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f>VLOOKUP(B108,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f>VLOOKUP(B109,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f>VLOOKUP(B110,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f>VLOOKUP(B111,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f>VLOOKUP(B112,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f>VLOOKUP(B113,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f>VLOOKUP(B114,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f>VLOOKUP(B115,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f>VLOOKUP(B116,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f>VLOOKUP(B117,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f>VLOOKUP(B118,Foglio2!$A$1:$B$21,2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f>VLOOKUP(B119,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>135</v>
+      </c>
+      <c r="C120">
+        <f>VLOOKUP(B120,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41CF8E-A452-495D-BE01-3FA4C0F4DC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE6EF8-87EC-4D4B-BA31-53EFC44CBBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="156">
   <si>
     <t>Nome</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>Inizio/fine</t>
+  </si>
+  <si>
+    <t>dunno</t>
+  </si>
+  <si>
+    <t>Figli</t>
+  </si>
+  <si>
+    <t>Effetti sonori figli</t>
+  </si>
+  <si>
+    <t>Effetti sonori</t>
   </si>
 </sst>
 </file>
@@ -1000,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,6 +3073,83 @@
         <v>124</v>
       </c>
       <c r="D121" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>152</v>
+      </c>
+      <c r="D125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>152</v>
+      </c>
+      <c r="D126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4449,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,17 +4716,26 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26">
         <v>17</v>
       </c>
     </row>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AE6EF8-87EC-4D4B-BA31-53EFC44CBBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFB459-9246-4C05-B137-A47453E3C68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$L$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$L$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1012,11 +1012,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
         <v>128</v>
@@ -1552,7 +1553,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
         <v>128</v>
@@ -1754,7 +1755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2724,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>120</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>121</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>122</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>123</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>124</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>125</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>126</v>
       </c>
@@ -3154,7 +3155,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L121" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
+  <autoFilter ref="A1:L128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Terreno"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4539,7 +4546,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFB459-9246-4C05-B137-A47453E3C68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3621ED32-8C71-4D15-A21A-E02DAD89FC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="2340" windowWidth="28770" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1015,9 +1015,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1198,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3158,7 @@
   <autoFilter ref="A1:L128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Terreno"/>
+        <filter val="Background"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4545,7 +4545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3621ED32-8C71-4D15-A21A-E02DAD89FC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C898C4A-768F-488B-BF96-2A274927D23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="2340" windowWidth="28770" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2565" yWindow="5265" windowWidth="28770" windowHeight="13185" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId2"/>
     <sheet name="Foglio2" sheetId="5" r:id="rId3"/>
     <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
+    <sheet name="Foglio5" sheetId="6" r:id="rId5"/>
+    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$L$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$M$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="162">
   <si>
     <t>Nome</t>
   </si>
@@ -507,6 +509,24 @@
   </si>
   <si>
     <t>Effetti sonori</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Rect</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>steep</t>
+  </si>
+  <si>
+    <t>gentle</t>
+  </si>
+  <si>
+    <t>T contraria</t>
   </si>
 </sst>
 </file>
@@ -1013,26 +1033,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="57.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1040,52 +1061,55 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>137</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>144</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>145</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1098,8 +1122,11 @@
       <c r="D2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1112,8 +1139,11 @@
       <c r="D3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="D4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1140,8 +1173,11 @@
       <c r="D5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1191,7 @@
         <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
         <v>129</v>
@@ -1164,13 +1200,16 @@
         <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1183,8 +1222,11 @@
       <c r="D7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1197,8 +1239,11 @@
       <c r="D8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1211,8 +1256,11 @@
       <c r="D9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +1274,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
         <v>129</v>
@@ -1235,13 +1283,16 @@
         <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1255,13 +1306,13 @@
         <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
         <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
         <v>128</v>
@@ -1275,8 +1326,11 @@
       <c r="K11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1289,8 +1343,11 @@
       <c r="D12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1360,11 @@
       <c r="D13" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1317,8 +1377,11 @@
       <c r="D14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1331,8 +1394,11 @@
       <c r="D15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1345,8 +1411,11 @@
       <c r="D16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1359,8 +1428,11 @@
       <c r="D17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1373,8 +1445,11 @@
       <c r="D18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1463,7 @@
         <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
         <v>129</v>
@@ -1397,16 +1472,19 @@
         <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="K19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1419,8 +1497,11 @@
       <c r="D20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1433,8 +1514,11 @@
       <c r="D21" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1447,8 +1531,11 @@
       <c r="D22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1461,8 +1548,11 @@
       <c r="D23" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1475,8 +1565,11 @@
       <c r="D24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1489,8 +1582,11 @@
       <c r="D25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1503,8 +1599,11 @@
       <c r="D26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1517,8 +1616,11 @@
       <c r="D27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1532,7 +1634,7 @@
         <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
         <v>128</v>
@@ -1552,8 +1654,11 @@
       <c r="K28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1567,7 +1672,7 @@
         <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -1587,8 +1692,11 @@
       <c r="K29" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1601,8 +1709,11 @@
       <c r="D30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1615,8 +1726,11 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1629,8 +1743,11 @@
       <c r="D32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1760,11 @@
       <c r="D33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1657,8 +1777,11 @@
       <c r="D34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1671,8 +1794,11 @@
       <c r="D35" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1685,8 +1811,11 @@
       <c r="D36" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1699,8 +1828,11 @@
       <c r="D37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1714,10 +1846,13 @@
         <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1866,7 @@
         <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
         <v>128</v>
@@ -1754,8 +1889,11 @@
       <c r="L39" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1769,7 +1907,7 @@
         <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F40" t="s">
         <v>128</v>
@@ -1792,8 +1930,11 @@
       <c r="L40" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1806,8 +1947,11 @@
       <c r="D41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1820,8 +1964,11 @@
       <c r="D42" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1834,8 +1981,11 @@
       <c r="D43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1848,8 +1998,11 @@
       <c r="D44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1862,8 +2015,11 @@
       <c r="D45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1876,8 +2032,11 @@
       <c r="D46" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1890,8 +2049,11 @@
       <c r="D47" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +2066,11 @@
       <c r="D48" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -1918,8 +2083,11 @@
       <c r="D49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +2100,11 @@
       <c r="D50" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -1946,8 +2117,11 @@
       <c r="D51" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1960,8 +2134,11 @@
       <c r="D52" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1974,8 +2151,11 @@
       <c r="D53" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1988,8 +2168,11 @@
       <c r="D54" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2002,8 +2185,11 @@
       <c r="D55" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2016,8 +2202,11 @@
       <c r="D56" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2031,7 +2220,7 @@
         <v>127</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
         <v>129</v>
@@ -2040,7 +2229,7 @@
         <v>129</v>
       </c>
       <c r="H57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I57" t="s">
         <v>128</v>
@@ -2057,8 +2246,11 @@
       <c r="M57" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2071,8 +2263,11 @@
       <c r="D58" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2085,8 +2280,11 @@
       <c r="D59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2297,11 @@
       <c r="D60" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2113,8 +2314,11 @@
       <c r="D61" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2331,11 @@
       <c r="D62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2141,8 +2348,11 @@
       <c r="D63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2155,8 +2365,11 @@
       <c r="D64" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2169,8 +2382,11 @@
       <c r="D65" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2183,8 +2399,11 @@
       <c r="D66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2416,11 @@
       <c r="D67" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2211,8 +2433,11 @@
       <c r="D68" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2225,8 +2450,11 @@
       <c r="D69" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2240,7 +2468,7 @@
         <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
         <v>129</v>
@@ -2266,8 +2494,11 @@
       <c r="M70" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2280,8 +2511,11 @@
       <c r="D71" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2294,8 +2528,11 @@
       <c r="D72" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2308,8 +2545,11 @@
       <c r="D73" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2562,11 @@
       <c r="D74" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2336,8 +2579,11 @@
       <c r="D75" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2350,8 +2596,11 @@
       <c r="D76" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2364,8 +2613,11 @@
       <c r="D77" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2378,8 +2630,11 @@
       <c r="D78" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2392,8 +2647,11 @@
       <c r="D79" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2406,8 +2664,11 @@
       <c r="D80" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2420,8 +2681,11 @@
       <c r="D81" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2434,8 +2698,11 @@
       <c r="D82" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2448,8 +2715,11 @@
       <c r="D83" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2462,8 +2732,11 @@
       <c r="D84" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2476,8 +2749,11 @@
       <c r="D85" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2490,8 +2766,11 @@
       <c r="D86" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2504,8 +2783,11 @@
       <c r="D87" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2800,11 @@
       <c r="D88" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2533,7 +2818,7 @@
         <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
         <v>129</v>
@@ -2542,7 +2827,7 @@
         <v>129</v>
       </c>
       <c r="H89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I89" t="s">
         <v>128</v>
@@ -2557,16 +2842,19 @@
         <v>128</v>
       </c>
       <c r="M89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O89" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2579,8 +2867,11 @@
       <c r="D90" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2593,8 +2884,11 @@
       <c r="D91" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2608,16 +2902,16 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G92" t="s">
         <v>129</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I92" t="s">
         <v>128</v>
@@ -2632,13 +2926,16 @@
         <v>128</v>
       </c>
       <c r="M92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="O92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2651,8 +2948,11 @@
       <c r="D93" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2666,16 +2966,16 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G94" t="s">
         <v>129</v>
       </c>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I94" t="s">
         <v>128</v>
@@ -2687,16 +2987,19 @@
         <v>128</v>
       </c>
       <c r="L94" t="s">
-        <v>129</v>
-      </c>
-      <c r="N94" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="M94" t="s">
+        <v>129</v>
       </c>
       <c r="O94" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2709,8 +3012,11 @@
       <c r="D95" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2723,8 +3029,11 @@
       <c r="D96" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2738,13 +3047,16 @@
         <v>125</v>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="G97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2757,8 +3069,11 @@
       <c r="D98" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2771,8 +3086,11 @@
       <c r="D99" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2785,8 +3103,11 @@
       <c r="D100" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2799,8 +3120,11 @@
       <c r="D101" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2813,8 +3137,11 @@
       <c r="D102" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -2827,8 +3154,11 @@
       <c r="D103" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +3171,11 @@
       <c r="D104" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2855,8 +3188,11 @@
       <c r="D105" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2869,8 +3205,11 @@
       <c r="D106" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -2883,8 +3222,11 @@
       <c r="D107" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -2897,8 +3239,11 @@
       <c r="D108" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2911,8 +3256,11 @@
       <c r="D109" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2925,8 +3273,11 @@
       <c r="D110" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -2939,8 +3290,11 @@
       <c r="D111" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2953,8 +3307,11 @@
       <c r="D112" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -2967,8 +3324,11 @@
       <c r="D113" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2981,8 +3341,11 @@
       <c r="D114" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2995,8 +3358,11 @@
       <c r="D115" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3009,8 +3375,11 @@
       <c r="D116" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3023,8 +3392,11 @@
       <c r="D117" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3037,8 +3409,11 @@
       <c r="D118" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3051,8 +3426,11 @@
       <c r="D119" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3065,8 +3443,11 @@
       <c r="D120" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -3076,8 +3457,11 @@
       <c r="D121" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>120</v>
       </c>
@@ -3087,8 +3471,11 @@
       <c r="D122" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>121</v>
       </c>
@@ -3098,8 +3485,11 @@
       <c r="D123" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>122</v>
       </c>
@@ -3109,8 +3499,11 @@
       <c r="D124" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>123</v>
       </c>
@@ -3120,8 +3513,11 @@
       <c r="D125" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>124</v>
       </c>
@@ -3131,8 +3527,11 @@
       <c r="D126" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>125</v>
       </c>
@@ -3142,8 +3541,11 @@
       <c r="D127" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>126</v>
       </c>
@@ -3153,12 +3555,18 @@
       <c r="D128" t="s">
         <v>135</v>
       </c>
+      <c r="E128" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:M128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Background"/>
+        <filter val="gentle"/>
+        <filter val="steep"/>
+        <filter val="T"/>
+        <filter val="T contraria"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6207,4 +6615,2612 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFB9E16-775B-45A9-8343-00B87C17FFBF}">
+  <dimension ref="B1:R128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(C2,$Q$2:$R$6,2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">VLOOKUP(C3,$Q$2:$R$6,2, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>161</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D128" si="1">VLOOKUP(C67,$Q$2:$R$6,2, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>157</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>157</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>157</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>157</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>157</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>157</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>157</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>157</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>157</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C226AE5-74AD-41B9-AE4D-1426914045ED}">
+  <dimension ref="A2:B128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C898C4A-768F-488B-BF96-2A274927D23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28492073-6319-4495-8CFE-D06CC12BB7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2565" yWindow="5265" windowWidth="28770" windowHeight="13185" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1032,12 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1534,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1619,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1729,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2121,7 +2120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3033,7 +3032,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>120</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>121</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>122</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>123</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>124</v>
       </c>
@@ -3531,7 +3530,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>125</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>126</v>
       </c>
@@ -3560,16 +3559,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="gentle"/>
-        <filter val="steep"/>
-        <filter val="T"/>
-        <filter val="T contraria"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3579,7 +3569,7 @@
   <dimension ref="B2:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,7 +4944,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,7 +5154,7 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6622,7 +6612,7 @@
   <dimension ref="B1:R128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8198,7 +8188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C226AE5-74AD-41B9-AE4D-1426914045ED}">
   <dimension ref="A2:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B128"/>
     </sheetView>
   </sheetViews>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28492073-6319-4495-8CFE-D06CC12BB7BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45917433-49C6-48D3-B4FD-18A377BFA2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1034,9 +1034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2328,7 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E62" t="s">
         <v>157</v>
@@ -4943,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,7 +4965,7 @@
         <v>126</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
         <v>139</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5069,7 +5069,7 @@
         <v>66</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
         <v>153</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5133,7 +5133,7 @@
         <v>154</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>155</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -5153,8 +5153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="C15">
         <f>VLOOKUP(B15,Foglio2!$A$1:$B$21,2,)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="C17">
         <f>VLOOKUP(B17,Foglio2!$A$1:$B$21,2,)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="C60">
         <f>VLOOKUP(B60,Foglio2!$A$1:$B$21,2,)</f>
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="C65">
         <f>VLOOKUP(B65,Foglio2!$A$1:$B$21,2,)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="C67">
         <f>VLOOKUP(B67,Foglio2!$A$1:$B$21,2,)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45917433-49C6-48D3-B4FD-18A377BFA2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80497FB-BD61-4B6D-BCC3-3382E1F31251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19245" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -4943,8 +4943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4965,7 +4965,7 @@
         <v>126</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="C15">
         <f>VLOOKUP(B15,Foglio2!$A$1:$B$21,2,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="C17">
         <f>VLOOKUP(B17,Foglio2!$A$1:$B$21,2,)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80497FB-BD61-4B6D-BCC3-3382E1F31251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081782E-50E6-4654-9956-5AB9EF17B919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="3810" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$M$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$M$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="163">
   <si>
     <t>Nome</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>T contraria</t>
+  </si>
+  <si>
+    <t>snakeTrack</t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1035,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T128"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1112,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1606,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1818,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1984,7 +1988,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2052,7 +2056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2372,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2406,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2870,7 +2874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -3157,7 +3161,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>120</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>121</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>122</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>123</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>124</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>125</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>126</v>
       </c>
@@ -3558,8 +3562,28 @@
         <v>157</v>
       </c>
     </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M128" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
+  <autoFilter ref="A1:M129" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Snake"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4943,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5151,10 +5175,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,6 +6626,102 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121">
+        <f>VLOOKUP(B121,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122">
+        <f>VLOOKUP(B122,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123">
+        <f>VLOOKUP(B123,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124">
+        <f>VLOOKUP(B124,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125">
+        <f>VLOOKUP(B125,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126">
+        <f>VLOOKUP(B126,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127">
+        <f>VLOOKUP(B127,Foglio2!$A$1:$B$21,2,)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128">
+        <f>VLOOKUP(B128,Foglio2!$A$1:$B$21,2,)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6609,10 +6729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFB9E16-775B-45A9-8343-00B87C17FFBF}">
-  <dimension ref="B1:R128"/>
+  <dimension ref="B1:R129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7443,7 +7563,7 @@
         <v>157</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D128" si="1">VLOOKUP(C67,$Q$2:$R$6,2, FALSE)</f>
+        <f t="shared" ref="D67:D129" si="1">VLOOKUP(C67,$Q$2:$R$6,2, FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8175,6 +8295,18 @@
         <v>157</v>
       </c>
       <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8186,10 +8318,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C226AE5-74AD-41B9-AE4D-1426914045ED}">
-  <dimension ref="A2:B128"/>
+  <dimension ref="A2:B129"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B128"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9210,6 +9342,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081782E-50E6-4654-9956-5AB9EF17B919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB19D63-5EFB-4455-AE55-3AF1C45F5E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20895" yWindow="4800" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId2"/>
-    <sheet name="Foglio2" sheetId="5" r:id="rId3"/>
-    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
-    <sheet name="Foglio5" sheetId="6" r:id="rId5"/>
-    <sheet name="Foglio6" sheetId="7" r:id="rId6"/>
+    <sheet name="Layer classi" sheetId="5" r:id="rId3"/>
+    <sheet name="tipo layer" sheetId="4" r:id="rId4"/>
+    <sheet name="tipo forme" sheetId="6" r:id="rId5"/>
+    <sheet name="Forme" sheetId="7" r:id="rId6"/>
+    <sheet name="Rotazioni" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$M$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Rotazioni!$A$1:$D$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="163">
   <si>
     <t>Nome</t>
   </si>
@@ -1035,12 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122:D129"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>120</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>121</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>122</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>123</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>124</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>125</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>126</v>
       </c>
@@ -3577,13 +3578,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M129" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Snake"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M129" xr:uid="{AF469F71-5011-4551-9995-E4BE0EFC6196}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5177,7 +5172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -5194,7 +5189,7 @@
         <v>125</v>
       </c>
       <c r="C1">
-        <f>VLOOKUP(B1,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B1,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5206,7 +5201,7 @@
         <v>125</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(B2,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B2,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5213,7 @@
         <v>125</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(B3,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B3,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5230,7 +5225,7 @@
         <v>125</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(B4,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B4,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5242,7 +5237,7 @@
         <v>127</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(B5,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B5,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5254,7 +5249,7 @@
         <v>127</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(B6,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B6,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5266,7 +5261,7 @@
         <v>127</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(B7,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B7,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5278,7 +5273,7 @@
         <v>130</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(B8,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B8,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5290,7 +5285,7 @@
         <v>127</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(B9,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B9,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5302,7 +5297,7 @@
         <v>134</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(B10,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B10,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5314,7 +5309,7 @@
         <v>125</v>
       </c>
       <c r="C11">
-        <f>VLOOKUP(B11,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B11,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5326,7 +5321,7 @@
         <v>145</v>
       </c>
       <c r="C12">
-        <f>VLOOKUP(B12,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B12,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>5</v>
       </c>
     </row>
@@ -5338,7 +5333,7 @@
         <v>125</v>
       </c>
       <c r="C13">
-        <f>VLOOKUP(B13,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B13,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5350,7 +5345,7 @@
         <v>125</v>
       </c>
       <c r="C14">
-        <f>VLOOKUP(B14,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B14,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5362,7 +5357,7 @@
         <v>126</v>
       </c>
       <c r="C15">
-        <f>VLOOKUP(B15,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B15,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>8</v>
       </c>
     </row>
@@ -5374,7 +5369,7 @@
         <v>125</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(B16,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B16,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5386,7 +5381,7 @@
         <v>126</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(B17,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B17,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>8</v>
       </c>
     </row>
@@ -5398,7 +5393,7 @@
         <v>136</v>
       </c>
       <c r="C18">
-        <f>VLOOKUP(B18,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B18,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>2</v>
       </c>
     </row>
@@ -5410,7 +5405,7 @@
         <v>125</v>
       </c>
       <c r="C19">
-        <f>VLOOKUP(B19,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B19,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5422,7 +5417,7 @@
         <v>125</v>
       </c>
       <c r="C20">
-        <f>VLOOKUP(B20,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B20,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5434,7 +5429,7 @@
         <v>125</v>
       </c>
       <c r="C21">
-        <f>VLOOKUP(B21,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B21,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5446,7 +5441,7 @@
         <v>127</v>
       </c>
       <c r="C22">
-        <f>VLOOKUP(B22,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B22,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5458,7 +5453,7 @@
         <v>127</v>
       </c>
       <c r="C23">
-        <f>VLOOKUP(B23,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B23,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5470,7 +5465,7 @@
         <v>127</v>
       </c>
       <c r="C24">
-        <f>VLOOKUP(B24,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B24,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5482,7 +5477,7 @@
         <v>125</v>
       </c>
       <c r="C25">
-        <f>VLOOKUP(B25,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B25,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5494,7 +5489,7 @@
         <v>125</v>
       </c>
       <c r="C26">
-        <f>VLOOKUP(B26,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B26,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5506,7 +5501,7 @@
         <v>138</v>
       </c>
       <c r="C27">
-        <f>VLOOKUP(B27,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B27,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -5518,7 +5513,7 @@
         <v>138</v>
       </c>
       <c r="C28">
-        <f>VLOOKUP(B28,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B28,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -5530,7 +5525,7 @@
         <v>125</v>
       </c>
       <c r="C29">
-        <f>VLOOKUP(B29,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B29,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5542,7 +5537,7 @@
         <v>127</v>
       </c>
       <c r="C30">
-        <f>VLOOKUP(B30,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B30,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5554,7 +5549,7 @@
         <v>125</v>
       </c>
       <c r="C31">
-        <f>VLOOKUP(B31,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B31,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5566,7 +5561,7 @@
         <v>125</v>
       </c>
       <c r="C32">
-        <f>VLOOKUP(B32,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B32,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5578,7 +5573,7 @@
         <v>125</v>
       </c>
       <c r="C33">
-        <f>VLOOKUP(B33,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B33,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5590,7 +5585,7 @@
         <v>125</v>
       </c>
       <c r="C34">
-        <f>VLOOKUP(B34,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B34,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5602,7 +5597,7 @@
         <v>125</v>
       </c>
       <c r="C35">
-        <f>VLOOKUP(B35,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B35,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5614,7 +5609,7 @@
         <v>125</v>
       </c>
       <c r="C36">
-        <f>VLOOKUP(B36,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B36,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5626,7 +5621,7 @@
         <v>145</v>
       </c>
       <c r="C37">
-        <f>VLOOKUP(B37,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B37,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>5</v>
       </c>
     </row>
@@ -5638,7 +5633,7 @@
         <v>138</v>
       </c>
       <c r="C38">
-        <f>VLOOKUP(B38,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B38,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -5650,7 +5645,7 @@
         <v>151</v>
       </c>
       <c r="C39">
-        <f>VLOOKUP(B39,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B39,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5662,7 +5657,7 @@
         <v>125</v>
       </c>
       <c r="C40">
-        <f>VLOOKUP(B40,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B40,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5674,7 +5669,7 @@
         <v>125</v>
       </c>
       <c r="C41">
-        <f>VLOOKUP(B41,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B41,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5686,7 +5681,7 @@
         <v>125</v>
       </c>
       <c r="C42">
-        <f>VLOOKUP(B42,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B42,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5698,7 +5693,7 @@
         <v>125</v>
       </c>
       <c r="C43">
-        <f>VLOOKUP(B43,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B43,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5710,7 +5705,7 @@
         <v>127</v>
       </c>
       <c r="C44">
-        <f>VLOOKUP(B44,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B44,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5722,7 +5717,7 @@
         <v>125</v>
       </c>
       <c r="C45">
-        <f>VLOOKUP(B45,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B45,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5734,7 +5729,7 @@
         <v>125</v>
       </c>
       <c r="C46">
-        <f>VLOOKUP(B46,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B46,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5746,7 +5741,7 @@
         <v>125</v>
       </c>
       <c r="C47">
-        <f>VLOOKUP(B47,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B47,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5758,7 +5753,7 @@
         <v>125</v>
       </c>
       <c r="C48">
-        <f>VLOOKUP(B48,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B48,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5770,7 +5765,7 @@
         <v>125</v>
       </c>
       <c r="C49">
-        <f>VLOOKUP(B49,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B49,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5782,7 +5777,7 @@
         <v>138</v>
       </c>
       <c r="C50">
-        <f>VLOOKUP(B50,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B50,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -5794,7 +5789,7 @@
         <v>125</v>
       </c>
       <c r="C51">
-        <f>VLOOKUP(B51,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B51,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5806,7 +5801,7 @@
         <v>125</v>
       </c>
       <c r="C52">
-        <f>VLOOKUP(B52,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B52,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5818,7 +5813,7 @@
         <v>125</v>
       </c>
       <c r="C53">
-        <f>VLOOKUP(B53,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B53,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5830,7 +5825,7 @@
         <v>127</v>
       </c>
       <c r="C54">
-        <f>VLOOKUP(B54,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B54,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5842,7 +5837,7 @@
         <v>125</v>
       </c>
       <c r="C55">
-        <f>VLOOKUP(B55,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B55,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5854,7 +5849,7 @@
         <v>127</v>
       </c>
       <c r="C56">
-        <f>VLOOKUP(B56,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B56,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5866,7 +5861,7 @@
         <v>125</v>
       </c>
       <c r="C57">
-        <f>VLOOKUP(B57,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B57,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5878,7 +5873,7 @@
         <v>125</v>
       </c>
       <c r="C58">
-        <f>VLOOKUP(B58,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B58,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5890,7 +5885,7 @@
         <v>125</v>
       </c>
       <c r="C59">
-        <f>VLOOKUP(B59,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B59,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5902,7 +5897,7 @@
         <v>66</v>
       </c>
       <c r="C60">
-        <f>VLOOKUP(B60,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B60,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -5914,7 +5909,7 @@
         <v>125</v>
       </c>
       <c r="C61">
-        <f>VLOOKUP(B61,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B61,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5926,7 +5921,7 @@
         <v>125</v>
       </c>
       <c r="C62">
-        <f>VLOOKUP(B62,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B62,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5938,7 +5933,7 @@
         <v>125</v>
       </c>
       <c r="C63">
-        <f>VLOOKUP(B63,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B63,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5950,7 +5945,7 @@
         <v>127</v>
       </c>
       <c r="C64">
-        <f>VLOOKUP(B64,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B64,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -5962,7 +5957,7 @@
         <v>71</v>
       </c>
       <c r="C65">
-        <f>VLOOKUP(B65,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B65,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>7</v>
       </c>
     </row>
@@ -5974,7 +5969,7 @@
         <v>125</v>
       </c>
       <c r="C66">
-        <f>VLOOKUP(B66,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B66,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -5986,7 +5981,7 @@
         <v>139</v>
       </c>
       <c r="C67">
-        <f>VLOOKUP(B67,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B67,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>8</v>
       </c>
     </row>
@@ -5998,7 +5993,7 @@
         <v>133</v>
       </c>
       <c r="C68">
-        <f>VLOOKUP(B68,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B68,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>3</v>
       </c>
     </row>
@@ -6010,7 +6005,7 @@
         <v>144</v>
       </c>
       <c r="C69">
-        <f>VLOOKUP(B69,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B69,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>6</v>
       </c>
     </row>
@@ -6022,7 +6017,7 @@
         <v>138</v>
       </c>
       <c r="C70">
-        <f>VLOOKUP(B70,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B70,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6034,7 +6029,7 @@
         <v>127</v>
       </c>
       <c r="C71">
-        <f>VLOOKUP(B71,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B71,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6046,7 +6041,7 @@
         <v>135</v>
       </c>
       <c r="C72">
-        <f>VLOOKUP(B72,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B72,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6058,7 +6053,7 @@
         <v>135</v>
       </c>
       <c r="C73">
-        <f>VLOOKUP(B73,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B73,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6070,7 +6065,7 @@
         <v>135</v>
       </c>
       <c r="C74">
-        <f>VLOOKUP(B74,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B74,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6082,7 +6077,7 @@
         <v>125</v>
       </c>
       <c r="C75">
-        <f>VLOOKUP(B75,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B75,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,7 +6089,7 @@
         <v>135</v>
       </c>
       <c r="C76">
-        <f>VLOOKUP(B76,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B76,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6106,7 +6101,7 @@
         <v>125</v>
       </c>
       <c r="C77">
-        <f>VLOOKUP(B77,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B77,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6118,7 +6113,7 @@
         <v>125</v>
       </c>
       <c r="C78">
-        <f>VLOOKUP(B78,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B78,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6130,7 +6125,7 @@
         <v>125</v>
       </c>
       <c r="C79">
-        <f>VLOOKUP(B79,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B79,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6142,7 +6137,7 @@
         <v>125</v>
       </c>
       <c r="C80">
-        <f>VLOOKUP(B80,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B80,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6149,7 @@
         <v>135</v>
       </c>
       <c r="C81">
-        <f>VLOOKUP(B81,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B81,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6166,7 +6161,7 @@
         <v>135</v>
       </c>
       <c r="C82">
-        <f>VLOOKUP(B82,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B82,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6178,7 +6173,7 @@
         <v>144</v>
       </c>
       <c r="C83">
-        <f>VLOOKUP(B83,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B83,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>6</v>
       </c>
     </row>
@@ -6190,7 +6185,7 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <f>VLOOKUP(B84,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B84,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>4</v>
       </c>
     </row>
@@ -6202,7 +6197,7 @@
         <v>141</v>
       </c>
       <c r="C85">
-        <f>VLOOKUP(B85,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B85,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6214,7 +6209,7 @@
         <v>137</v>
       </c>
       <c r="C86">
-        <f>VLOOKUP(B86,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B86,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6226,7 +6221,7 @@
         <v>135</v>
       </c>
       <c r="C87">
-        <f>VLOOKUP(B87,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B87,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6238,7 +6233,7 @@
         <v>130</v>
       </c>
       <c r="C88">
-        <f>VLOOKUP(B88,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B88,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6250,7 +6245,7 @@
         <v>130</v>
       </c>
       <c r="C89">
-        <f>VLOOKUP(B89,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B89,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6262,7 +6257,7 @@
         <v>135</v>
       </c>
       <c r="C90">
-        <f>VLOOKUP(B90,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B90,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6274,7 +6269,7 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <f>VLOOKUP(B91,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B91,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6286,7 +6281,7 @@
         <v>145</v>
       </c>
       <c r="C92">
-        <f>VLOOKUP(B92,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B92,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>5</v>
       </c>
     </row>
@@ -6298,7 +6293,7 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <f>VLOOKUP(B93,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B93,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>2</v>
       </c>
     </row>
@@ -6310,7 +6305,7 @@
         <v>135</v>
       </c>
       <c r="C94">
-        <f>VLOOKUP(B94,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B94,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6322,7 +6317,7 @@
         <v>127</v>
       </c>
       <c r="C95">
-        <f>VLOOKUP(B95,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B95,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6334,7 +6329,7 @@
         <v>125</v>
       </c>
       <c r="C96">
-        <f>VLOOKUP(B96,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B96,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6346,7 +6341,7 @@
         <v>125</v>
       </c>
       <c r="C97">
-        <f>VLOOKUP(B97,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B97,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6358,7 +6353,7 @@
         <v>135</v>
       </c>
       <c r="C98">
-        <f>VLOOKUP(B98,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B98,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6370,7 +6365,7 @@
         <v>125</v>
       </c>
       <c r="C99">
-        <f>VLOOKUP(B99,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B99,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6382,7 +6377,7 @@
         <v>127</v>
       </c>
       <c r="C100">
-        <f>VLOOKUP(B100,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B100,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6394,7 +6389,7 @@
         <v>127</v>
       </c>
       <c r="C101">
-        <f>VLOOKUP(B101,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B101,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6406,7 +6401,7 @@
         <v>135</v>
       </c>
       <c r="C102">
-        <f>VLOOKUP(B102,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B102,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6418,7 +6413,7 @@
         <v>125</v>
       </c>
       <c r="C103">
-        <f>VLOOKUP(B103,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B103,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6430,7 +6425,7 @@
         <v>125</v>
       </c>
       <c r="C104">
-        <f>VLOOKUP(B104,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B104,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6442,7 +6437,7 @@
         <v>125</v>
       </c>
       <c r="C105">
-        <f>VLOOKUP(B105,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B105,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6454,7 +6449,7 @@
         <v>125</v>
       </c>
       <c r="C106">
-        <f>VLOOKUP(B106,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B106,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6466,7 +6461,7 @@
         <v>135</v>
       </c>
       <c r="C107">
-        <f>VLOOKUP(B107,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B107,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6478,7 +6473,7 @@
         <v>125</v>
       </c>
       <c r="C108">
-        <f>VLOOKUP(B108,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B108,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6490,7 +6485,7 @@
         <v>135</v>
       </c>
       <c r="C109">
-        <f>VLOOKUP(B109,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B109,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6502,7 +6497,7 @@
         <v>135</v>
       </c>
       <c r="C110">
-        <f>VLOOKUP(B110,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B110,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6514,7 +6509,7 @@
         <v>135</v>
       </c>
       <c r="C111">
-        <f>VLOOKUP(B111,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B111,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6526,7 +6521,7 @@
         <v>135</v>
       </c>
       <c r="C112">
-        <f>VLOOKUP(B112,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B112,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6538,7 +6533,7 @@
         <v>135</v>
       </c>
       <c r="C113">
-        <f>VLOOKUP(B113,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B113,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6550,7 +6545,7 @@
         <v>135</v>
       </c>
       <c r="C114">
-        <f>VLOOKUP(B114,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B114,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6562,7 +6557,7 @@
         <v>125</v>
       </c>
       <c r="C115">
-        <f>VLOOKUP(B115,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B115,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6574,7 +6569,7 @@
         <v>135</v>
       </c>
       <c r="C116">
-        <f>VLOOKUP(B116,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B116,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6586,7 +6581,7 @@
         <v>135</v>
       </c>
       <c r="C117">
-        <f>VLOOKUP(B117,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B117,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6598,7 +6593,7 @@
         <v>125</v>
       </c>
       <c r="C118">
-        <f>VLOOKUP(B118,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B118,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>0</v>
       </c>
     </row>
@@ -6610,7 +6605,7 @@
         <v>135</v>
       </c>
       <c r="C119">
-        <f>VLOOKUP(B119,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B119,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6622,7 +6617,7 @@
         <v>135</v>
       </c>
       <c r="C120">
-        <f>VLOOKUP(B120,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B120,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6634,7 +6629,7 @@
         <v>135</v>
       </c>
       <c r="C121">
-        <f>VLOOKUP(B121,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B121,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6646,7 +6641,7 @@
         <v>135</v>
       </c>
       <c r="C122">
-        <f>VLOOKUP(B122,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B122,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6658,7 +6653,7 @@
         <v>135</v>
       </c>
       <c r="C123">
-        <f>VLOOKUP(B123,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B123,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6670,7 +6665,7 @@
         <v>135</v>
       </c>
       <c r="C124">
-        <f>VLOOKUP(B124,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B124,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6682,7 +6677,7 @@
         <v>135</v>
       </c>
       <c r="C125">
-        <f>VLOOKUP(B125,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B125,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6694,7 +6689,7 @@
         <v>135</v>
       </c>
       <c r="C126">
-        <f>VLOOKUP(B126,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B126,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6706,7 +6701,7 @@
         <v>135</v>
       </c>
       <c r="C127">
-        <f>VLOOKUP(B127,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B127,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>-1</v>
       </c>
     </row>
@@ -6718,7 +6713,7 @@
         <v>141</v>
       </c>
       <c r="C128">
-        <f>VLOOKUP(B128,Foglio2!$A$1:$B$21,2,)</f>
+        <f>VLOOKUP(B128,'Layer classi'!$A$1:$B$21,2,)</f>
         <v>1</v>
       </c>
     </row>
@@ -6731,8 +6726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFB9E16-775B-45A9-8343-00B87C17FFBF}">
   <dimension ref="B1:R129"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8320,8 +8315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C226AE5-74AD-41B9-AE4D-1426914045ED}">
   <dimension ref="A2:B129"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9353,4 +9348,1817 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F57D332-C942-4E13-9976-905346472273}">
+  <dimension ref="A1:D128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="s">
+        <v>135</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D128" xr:uid="{81A1C1DD-1FDE-48B4-9B47-D008B9EC1248}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB19D63-5EFB-4455-AE55-3AF1C45F5E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF31AB-45C7-423A-9E8E-481D2F9D65A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20895" yWindow="4800" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9352,10 +9352,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F57D332-C942-4E13-9976-905346472273}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9379,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9435,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9477,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9617,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9729,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9897,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10023,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10051,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10177,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10275,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -10289,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -10317,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -10331,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -10387,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10513,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10625,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10667,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10737,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10793,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10849,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10989,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11017,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11031,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11045,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11101,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11115,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -11158,7 +11159,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D128" xr:uid="{81A1C1DD-1FDE-48B4-9B47-D008B9EC1248}"/>
+  <autoFilter ref="A1:D128" xr:uid="{81A1C1DD-1FDE-48B4-9B47-D008B9EC1248}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Snake Block"/>
+        <filter val="snakeTrack"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF31AB-45C7-423A-9E8E-481D2F9D65A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6EAB5E-325D-4EFD-B6BC-70F460791BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D129"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,7 +2683,7 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" t="s">
         <v>157</v>
@@ -3588,7 +3588,7 @@
   <dimension ref="B2:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6134,11 +6134,11 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C80">
         <f>VLOOKUP(B80,'Layer classi'!$A$1:$B$21,2,)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6EAB5E-325D-4EFD-B6BC-70F460791BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8054CF-F98D-474D-8B26-B52B3B151CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E01B41-BDA6-4A71-AD93-F66AD7291B52}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C128"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8054CF-F98D-474D-8B26-B52B3B151CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E397EAE-B739-43BC-AE4F-7E12A8CB8E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="165">
   <si>
     <t>Nome</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>snakeTrack</t>
+  </si>
+  <si>
+    <t>soundEffects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oggetti in tubo </t>
   </si>
 </sst>
 </file>
@@ -4960,10 +4966,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,6 +5167,22 @@
       </c>
       <c r="B26">
         <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi approfondita sovrapponibili.xlsx
+++ b/Analisi approfondita sovrapponibili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documenti\repositories\Super Mario Deep Maker 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E397EAE-B739-43BC-AE4F-7E12A8CB8E9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97844009-8AA4-41DE-A609-95EB80C5069B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="3525" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1046,8 +1046,8 @@
   <dimension ref="A1:T129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4968,7 +4968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173310C4-1295-4648-B14B-887801CC320C}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
